--- a/biology/Médecine/Articaïne/Articaïne.xlsx
+++ b/biology/Médecine/Articaïne/Articaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Artica%C3%AFne</t>
+          <t>Articaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'articaïne est un anesthésique local de la famille des amino-amides.
-Efficace et peu coûteuse, elle est fréquemment utilisée en odontologie, même si la lidocaïne lui est souvent préférée. En solution, elle est parfois mélangée à l'adrénaline. Elle subira une bio-transformation (hydrolyse) par le rein[2].
+Efficace et peu coûteuse, elle est fréquemment utilisée en odontologie, même si la lidocaïne lui est souvent préférée. En solution, elle est parfois mélangée à l'adrénaline. Elle subira une bio-transformation (hydrolyse) par le rein.
 Vis-à-vis des femmes enceintes, l'articaïne passe peu la barrière placentaire et ne passe pas dans le lait maternel. L'élimination de la molécule d'articaïne s'effectue en 48 heures[réf. souhaitée].
 Elle est contre-indiquée en cas de porphyrie.
 </t>
